--- a/ejecucion.xlsx
+++ b/ejecucion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\scrapper_contraloria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37381C88-3834-4F67-9421-57AD82CE1366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66E8527-A6A9-44E5-A12F-78814EEE19BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56F88E4B-8FDB-41EF-B0AB-EB1AE36004E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Tipo</t>
   </si>
@@ -134,12 +134,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="24">
@@ -550,13 +556,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -876,7 +882,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1035,7 @@
       <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
@@ -1039,9 +1045,7 @@
       <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
@@ -1052,7 +1056,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1120,9 +1124,9 @@
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D9:D13"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="A16:A22"/>
+    <mergeCell ref="D9:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
